--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2491919.951891471</v>
+        <v>2489667.872180264</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.105228319</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>92.72329049755604</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>23.79925355567548</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>32.83323659136506</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>72.67314235574916</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>19.68942351146712</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>343.4798709087835</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1057,22 +1057,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>106.4572720967643</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>45.06776172308889</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>188.2196394312107</v>
+        <v>120.7307820829407</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>15.42290135054921</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710084</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>98.72106119200303</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>81.07546534818459</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>114.0764389318005</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788180381</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>60.42721558712929</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,13 +3427,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="E37" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>40.53421095546741</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>53.65602513333643</v>
       </c>
     </row>
     <row r="44">
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>94.05355358057936</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,55 +4325,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794325</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794325</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2755.806928794325</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>899.9923811356285</v>
+        <v>249.7936412903424</v>
       </c>
       <c r="C4" t="n">
-        <v>731.0561982077216</v>
+        <v>249.7936412903424</v>
       </c>
       <c r="D4" t="n">
-        <v>580.9395587953859</v>
+        <v>99.67700187800671</v>
       </c>
       <c r="E4" t="n">
-        <v>433.0264652129928</v>
+        <v>99.67700187800671</v>
       </c>
       <c r="F4" t="n">
-        <v>286.1365177150824</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>286.1365177150824</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>139.9193309329402</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1638.191681214137</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1638.191681214137</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1348.774511177176</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X4" t="n">
-        <v>1120.784960279159</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y4" t="n">
-        <v>899.9923811356285</v>
+        <v>431.4421061205821</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1698.50962791956</v>
+        <v>1887.813801820606</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1518.851284880194</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4580,7 +4580,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y5" t="n">
-        <v>1698.50962791956</v>
+        <v>1887.813801820606</v>
       </c>
     </row>
     <row r="6">
@@ -4620,70 +4620,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>678.4618728343356</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="C7" t="n">
-        <v>678.4618728343356</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="D7" t="n">
-        <v>528.3452334219999</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396067</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1819.761950010953</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1597.995334580479</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1308.892467706123</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1308.892467706123</v>
+        <v>1378.488599602889</v>
       </c>
       <c r="W7" t="n">
-        <v>1308.892467706123</v>
+        <v>1089.071429565929</v>
       </c>
       <c r="X7" t="n">
-        <v>1080.902916808105</v>
+        <v>861.0818786679114</v>
       </c>
       <c r="Y7" t="n">
-        <v>860.1103376645754</v>
+        <v>640.2892995243812</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1822.632236038042</v>
+        <v>1648.004869410821</v>
       </c>
       <c r="C8" t="n">
-        <v>1453.669719097631</v>
+        <v>1279.042352470409</v>
       </c>
       <c r="D8" t="n">
-        <v>1095.40402049088</v>
+        <v>920.7766538636586</v>
       </c>
       <c r="E8" t="n">
-        <v>709.6157678926361</v>
+        <v>534.9884012654143</v>
       </c>
       <c r="F8" t="n">
-        <v>298.6298631030285</v>
+        <v>528.0429005162108</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339056</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X8" t="n">
-        <v>2599.371408077976</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y8" t="n">
-        <v>2209.232076102164</v>
+        <v>2034.604709474942</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>864.6455479292516</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5066,13 +5066,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5118,22 +5118,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703784</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>734.6461798836018</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C13" t="n">
-        <v>634.9279362553159</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5239,10 +5239,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138415</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5252,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075811</v>
@@ -5291,37 +5291,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890283</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.11872044489</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684177</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
         <v>402.7245934908938</v>
@@ -5428,58 +5428,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1205.711814750798</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>984.9192356072675</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5534,31 +5534,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>208.9886740942263</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5650,25 +5650,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5777,25 +5777,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5944,16 +5944,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273903</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6367,13 +6367,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6449,10 +6449,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6543,19 +6543,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6601,19 +6601,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6689,16 +6689,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6707,13 +6707,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6780,16 +6780,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="35">
@@ -6923,16 +6923,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
         <v>378.192580311172</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7075,19 +7075,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>194.8007783998286</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E37" t="n">
-        <v>93.81666304797187</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7160,10 +7160,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7172,10 +7172,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7351,31 +7351,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7412,7 +7412,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7488,19 +7488,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>680.448174698413</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7612,7 +7612,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>862.0966395286528</v>
       </c>
     </row>
     <row r="44">
@@ -7640,28 +7640,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>270.906955875391</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>270.906955875391</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-2.453097624300965e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>68.5257599066248</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>67.54000767002776</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>65.7555412501368</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.22910392194126</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>44.73700564187207</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>84.99383243580195</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,13 +25315,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="E37" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -25330,7 +25330,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>126.7126101431604</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>164.9286282187583</v>
       </c>
     </row>
     <row r="44">
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>46.24115926564453</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>797336.9821029655</v>
+        <v>797336.9821029654</v>
       </c>
     </row>
     <row r="9">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>636307.3716448194</v>
+      </c>
+      <c r="C2" t="n">
+        <v>636307.3716448195</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.3716448196</v>
       </c>
-      <c r="C2" t="n">
-        <v>636307.37164482</v>
-      </c>
-      <c r="D2" t="n">
-        <v>636307.3716448195</v>
-      </c>
       <c r="E2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="G2" t="n">
         <v>625538.6147597549</v>
@@ -26332,25 +26332,25 @@
         <v>625538.6147597549</v>
       </c>
       <c r="I2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="J2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="K2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="K2" t="n">
-        <v>625538.6147597545</v>
-      </c>
       <c r="L2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="M2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.614759755</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="P2" t="n">
         <v>625538.6147597546</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314476</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="C4" t="n">
         <v>90354.06702314479</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="E4" t="n">
+        <v>11167.03225179348</v>
+      </c>
+      <c r="F4" t="n">
         <v>11167.03225179352</v>
       </c>
-      <c r="F4" t="n">
-        <v>11167.0322517935</v>
-      </c>
       <c r="G4" t="n">
-        <v>11167.0322517935</v>
+        <v>11167.03225179358</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179356</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179353</v>
+        <v>11167.03225179356</v>
       </c>
       <c r="J4" t="n">
         <v>11167.03225179351</v>
@@ -26522,46 +26522,46 @@
         <v>-890725.3816673113</v>
       </c>
       <c r="C6" t="n">
-        <v>438019.3640602821</v>
+        <v>438019.3640602814</v>
       </c>
       <c r="D6" t="n">
-        <v>438019.3640602814</v>
+        <v>438019.3640602815</v>
       </c>
       <c r="E6" t="n">
-        <v>187836.5908766985</v>
+        <v>187801.8529512632</v>
       </c>
       <c r="F6" t="n">
-        <v>513249.0526840541</v>
+        <v>513214.3147586189</v>
       </c>
       <c r="G6" t="n">
-        <v>513249.0526840545</v>
+        <v>513214.3147586188</v>
       </c>
       <c r="H6" t="n">
-        <v>513249.0526840542</v>
+        <v>513214.3147586185</v>
       </c>
       <c r="I6" t="n">
-        <v>513249.052684054</v>
+        <v>513214.3147586185</v>
       </c>
       <c r="J6" t="n">
-        <v>295717.8502867765</v>
+        <v>295683.112361341</v>
       </c>
       <c r="K6" t="n">
-        <v>513249.0526840538</v>
+        <v>513214.3147586184</v>
       </c>
       <c r="L6" t="n">
-        <v>513249.052684054</v>
+        <v>513214.3147586184</v>
       </c>
       <c r="M6" t="n">
-        <v>428194.0247485423</v>
+        <v>428159.2868231066</v>
       </c>
       <c r="N6" t="n">
-        <v>513249.052684054</v>
+        <v>513214.3147586187</v>
       </c>
       <c r="O6" t="n">
-        <v>513249.052684054</v>
+        <v>513214.3147586184</v>
       </c>
       <c r="P6" t="n">
-        <v>513249.052684054</v>
+        <v>513214.3147586182</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26969,7 +26969,7 @@
         <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>261.9597511231269</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>362.4386851003781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>112.5878114315662</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>23.67927805408893</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>345.5834682595404</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>11.20317071189942</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,22 +27777,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>83.31175323467764</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>207.0698816007391</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>222.7020862222428</v>
+        <v>290.1909435705127</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>271.1000969860418</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-8.682195192673604e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28339,10 +28339,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H14" t="n">
-        <v>-2.353712668104585e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28515,7 +28515,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31838,25 +31838,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>567.4250434254225</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,34 +32075,34 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>538.5853835133119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704897</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>241.3877517590781</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32333,7 +32333,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32552,7 +32552,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>709.4760096096878</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,28 +32783,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -33023,16 +33023,16 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>510.682889626564</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,7 +33041,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33263,13 +33263,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,7 +33278,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33500,19 +33500,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>473.8581708471803</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33652,10 +33652,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33892,7 +33892,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33977,25 +33977,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>651.5998000366021</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34132,7 +34132,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34208,22 +34208,22 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34442,22 +34442,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34466,7 +34466,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394598</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>436.0833313420891</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>396.4513495912935</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561594</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35811,10 +35811,10 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010405</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.5501250924114</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35981,7 +35981,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>578.1342975263545</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36431,28 +36431,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>368.5488557045456</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,7 +36689,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,7 +36926,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37148,19 +37148,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>342.516458763847</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37300,10 +37300,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>509.0035555921577</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998967</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38114,7 +38114,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
